--- a/en/application_framework/application_framework/web/getting_started/images/project_bulk_update/images.xlsx
+++ b/en/application_framework/application_framework/web/getting_started/images/project_bulk_update/images.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tikk91214\work\v6\project\nablarch-document\en\application_framework\application_framework\web\getting_started\images\project_bulk_update\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89565A5-1994-4B4C-B506-93BCD82669B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="555" windowWidth="9015" windowHeight="8700"/>
+    <workbookView xWindow="13695" yWindow="0" windowWidth="13710" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="顧客登録" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -70,6 +76,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -91,7 +100,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="角丸四角形 47"/>
+        <xdr:cNvPr id="48" name="角丸四角形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -140,332 +155,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>96269</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>105002</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="200025" y="190500"/>
-          <a:ext cx="7297169" cy="1629002"/>
-          <a:chOff x="200025" y="190500"/>
-          <a:chExt cx="7297169" cy="1629002"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="200025" y="190500"/>
-            <a:ext cx="7297169" cy="1629002"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2105025" y="257175"/>
-            <a:ext cx="1190625" cy="381000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>20330</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>115154</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="9" name="グループ化 8"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="57150" y="1885950"/>
-          <a:ext cx="9164330" cy="6115904"/>
-          <a:chOff x="57150" y="1885950"/>
-          <a:chExt cx="9164330" cy="6115904"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="57150" y="1885950"/>
-            <a:ext cx="9164330" cy="6115904"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="正方形/長方形 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1085850" y="5076825"/>
-            <a:ext cx="2200275" cy="2647950"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="正方形/長方形 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6924676" y="2047875"/>
-            <a:ext cx="971550" cy="495300"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>168044</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="200025" y="8401050"/>
-          <a:ext cx="10058400" cy="2396894"/>
-          <a:chOff x="200025" y="8401050"/>
-          <a:chExt cx="10058400" cy="2396894"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="6" name="図 5"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-            <a:extLst>
-              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-              </a:ext>
-            </a:extLst>
-          </a:blip>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="200025" y="8401050"/>
-            <a:ext cx="10058400" cy="2396894"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="正方形/長方形 25"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="9429750" y="8429625"/>
-            <a:ext cx="828675" cy="466725"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent6"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent6"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>78</xdr:row>
@@ -479,7 +168,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -533,7 +228,13 @@
     <xdr:ext cx="3467101" cy="314325"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -597,7 +298,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="15" name="グループ化 14"/>
+        <xdr:cNvPr id="15" name="グループ化 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -610,7 +317,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -647,7 +360,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="14" name="テキスト ボックス 13"/>
+          <xdr:cNvPr id="14" name="テキスト ボックス 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -730,7 +449,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+          <xdr:cNvPr id="11" name="テキスト ボックス 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1"/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -771,7 +496,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+          <xdr:cNvPr id="12" name="正方形/長方形 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -812,13 +543,179 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>94263</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09DE703-F6AC-4F28-A54B-E82B1E61D3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="200025" y="171450"/>
+          <a:ext cx="7895238" cy="1342857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BE7917-FFAF-AA3B-FF8C-0B5569D62010}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="1885950"/>
+          <a:ext cx="12087225" cy="4095750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69929B6A-5094-326D-5203-5140D8BB4DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="200025" y="6343650"/>
+          <a:ext cx="11744325" cy="3000375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -856,7 +753,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -928,7 +825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1101,12 +998,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="P68" sqref="P68"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -1118,7 +1013,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
@@ -1134,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
